--- a/Team-Data/2020-21/12-30-2020-21.xlsx
+++ b/Team-Data/2020-21/12-30-2020-21.xlsx
@@ -733,115 +733,115 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>40.3</v>
       </c>
       <c r="J2" t="n">
-        <v>87.5</v>
+        <v>83.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="L2" t="n">
-        <v>16.3</v>
+        <v>15.7</v>
       </c>
       <c r="M2" t="n">
-        <v>39.8</v>
+        <v>37.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.409</v>
+        <v>0.416</v>
       </c>
       <c r="O2" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="P2" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.851</v>
+        <v>0.859</v>
       </c>
       <c r="R2" t="n">
-        <v>11.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>38.3</v>
+        <v>38.7</v>
       </c>
       <c r="T2" t="n">
-        <v>49.8</v>
+        <v>48.3</v>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
       <c r="Z2" t="n">
-        <v>22.5</v>
+        <v>23.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.8</v>
+        <v>124.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -853,40 +853,40 @@
         <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>30</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA2" t="n">
         <v>4</v>
       </c>
       <c r="BB2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -915,127 +915,127 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>42.8</v>
+        <v>41.3</v>
       </c>
       <c r="J3" t="n">
-        <v>89.8</v>
+        <v>89.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>28</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="R3" t="n">
         <v>12</v>
       </c>
-      <c r="M3" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11.6</v>
-      </c>
       <c r="S3" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="T3" t="n">
         <v>41.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W3" t="n">
-        <v>10.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.2</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-5.8</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>17</v>
       </c>
-      <c r="AM3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>22</v>
-      </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="n">
         <v>30</v>
@@ -1044,31 +1044,31 @@
         <v>26</v>
       </c>
       <c r="AU3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC3" t="n">
         <v>22</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -1097,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="T4" t="n">
         <v>49</v>
       </c>
-      <c r="I4" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>90</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16</v>
-      </c>
-      <c r="M4" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10</v>
-      </c>
-      <c r="S4" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>47.2</v>
-      </c>
       <c r="U4" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="V4" t="n">
-        <v>16.2</v>
+        <v>18</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21</v>
       </c>
-      <c r="AA4" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM4" t="n">
         <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>9</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY4" t="n">
         <v>12</v>
       </c>
-      <c r="AS4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>4</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB4" t="n">
         <v>8</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>3</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>4</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -1279,115 +1279,115 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="J5" t="n">
-        <v>90.8</v>
+        <v>93</v>
       </c>
       <c r="K5" t="n">
-        <v>0.463</v>
+        <v>0.448</v>
       </c>
       <c r="L5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.355</v>
       </c>
       <c r="O5" t="n">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="P5" t="n">
         <v>21.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.647</v>
+        <v>0.594</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>33.8</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>45.3</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
         <v>30.3</v>
       </c>
       <c r="V5" t="n">
-        <v>16.8</v>
+        <v>14.3</v>
       </c>
       <c r="W5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.3</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF5" t="n">
         <v>12</v>
       </c>
-      <c r="AF5" t="n">
-        <v>10</v>
-      </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>9</v>
       </c>
       <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL5" t="n">
         <v>11</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>10</v>
-      </c>
       <c r="AM5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1402,37 +1402,37 @@
         <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AT5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
         <v>16</v>
       </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="AY5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA5" t="n">
         <v>20</v>
       </c>
-      <c r="AW5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>26</v>
-      </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -1539,16 +1539,16 @@
         <v>-8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
@@ -1557,19 +1557,19 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="n">
         <v>11</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>23</v>
@@ -1596,25 +1596,25 @@
         <v>28</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
         <v>22</v>
       </c>
       <c r="AY6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
         <v>1</v>
       </c>
       <c r="BB6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -1721,13 +1721,13 @@
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="n">
         <v>3</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>2</v>
       </c>
       <c r="AG7" t="n">
         <v>3</v>
@@ -1736,67 +1736,67 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>27</v>
       </c>
       <c r="AR7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
         <v>11</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -1825,160 +1825,160 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
-        <v>0.45</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
       </c>
       <c r="M8" t="n">
-        <v>38</v>
+        <v>36.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.316</v>
+        <v>0.327</v>
       </c>
       <c r="O8" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="P8" t="n">
-        <v>28</v>
+        <v>26.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.823</v>
       </c>
       <c r="R8" t="n">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>33.3</v>
       </c>
       <c r="T8" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U8" t="n">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
       <c r="V8" t="n">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110</v>
+        <v>113.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
       </c>
       <c r="AI8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>24</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN8" t="n">
         <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS8" t="n">
         <v>23</v>
       </c>
-      <c r="AS8" t="n">
-        <v>28</v>
-      </c>
       <c r="AT8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
         <v>30</v>
       </c>
-      <c r="AU8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="n">
+      <c r="AY8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA8" t="n">
         <v>7</v>
       </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>5</v>
-      </c>
       <c r="BB8" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -2085,43 +2085,43 @@
         <v>-3</v>
       </c>
       <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH9" t="n">
         <v>6</v>
       </c>
-      <c r="AE9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>4</v>
-      </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>26</v>
@@ -2130,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>24</v>
@@ -2139,10 +2139,10 @@
         <v>5</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>8</v>
@@ -2151,16 +2151,16 @@
         <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
         <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2282,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2294,28 +2294,28 @@
         <v>14</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>11</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>17</v>
@@ -2324,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="AW10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX10" t="n">
         <v>22</v>
@@ -2336,13 +2336,13 @@
         <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -2449,16 +2449,16 @@
         <v>-13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
         <v>12</v>
       </c>
-      <c r="AF11" t="n">
-        <v>10</v>
-      </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
@@ -2467,19 +2467,19 @@
         <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>4</v>
@@ -2488,25 +2488,25 @@
         <v>3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>17</v>
       </c>
       <c r="AS11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU11" t="n">
         <v>27</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>8</v>
@@ -2518,10 +2518,10 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>30</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
         <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>27</v>
@@ -2655,37 +2655,37 @@
         <v>6</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>28</v>
       </c>
       <c r="AS12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT12" t="n">
         <v>27</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>28</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
         <v>24</v>
@@ -2697,16 +2697,16 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>26</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -2813,13 +2813,13 @@
         <v>7.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
         <v>3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>3</v>
@@ -2828,13 +2828,13 @@
         <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
@@ -2846,10 +2846,10 @@
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2861,22 +2861,22 @@
         <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
         <v>4</v>
       </c>
       <c r="AV13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2885,10 +2885,10 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -2917,148 +2917,148 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.481</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>14.2</v>
+        <v>13.3</v>
       </c>
       <c r="M14" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.394</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P14" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.802</v>
+        <v>0.823</v>
       </c>
       <c r="R14" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="U14" t="n">
-        <v>25.8</v>
+        <v>24.8</v>
       </c>
       <c r="V14" t="n">
-        <v>15.4</v>
+        <v>16.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="n">
         <v>3</v>
       </c>
-      <c r="Z14" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AG14" t="n">
         <v>3</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>9</v>
       </c>
       <c r="AI14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
         <v>16</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>24</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AS14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT14" t="n">
         <v>27</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3067,10 +3067,10 @@
         <v>30</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -3099,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>87.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="L15" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="M15" t="n">
-        <v>31.2</v>
+        <v>32.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.417</v>
+        <v>0.392</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R15" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="S15" t="n">
-        <v>37.8</v>
+        <v>37.3</v>
       </c>
       <c r="T15" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="U15" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="V15" t="n">
         <v>17</v>
       </c>
       <c r="W15" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3195,34 +3195,34 @@
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
         <v>12</v>
@@ -3231,28 +3231,28 @@
         <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC15" t="n">
         <v>4</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>1</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -3281,160 +3281,160 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="H16" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>42.7</v>
       </c>
       <c r="J16" t="n">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
         <v>33</v>
       </c>
       <c r="N16" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P16" t="n">
         <v>25.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.763</v>
       </c>
       <c r="R16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="T16" t="n">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="U16" t="n">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="V16" t="n">
-        <v>15.5</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z16" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AA16" t="n">
         <v>19.3</v>
       </c>
-      <c r="AA16" t="n">
-        <v>19.8</v>
-      </c>
       <c r="AB16" t="n">
-        <v>113.5</v>
+        <v>115.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-9</v>
+        <v>-5.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
         <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AT16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV16" t="n">
         <v>5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>13</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -3463,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>79.8</v>
+        <v>79</v>
       </c>
       <c r="K17" t="n">
-        <v>0.492</v>
+        <v>0.494</v>
       </c>
       <c r="L17" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="M17" t="n">
-        <v>33.3</v>
+        <v>31.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>15.7</v>
       </c>
       <c r="P17" t="n">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.798</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="S17" t="n">
-        <v>34</v>
+        <v>31.3</v>
       </c>
       <c r="T17" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="V17" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>108.5</v>
+        <v>105</v>
       </c>
       <c r="AC17" t="n">
-        <v>-7.3</v>
+        <v>-13.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
         <v>12</v>
       </c>
-      <c r="AF17" t="n">
-        <v>10</v>
-      </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -3645,106 +3645,106 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>45.6</v>
+        <v>47</v>
       </c>
       <c r="J18" t="n">
-        <v>93.8</v>
+        <v>91.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.486</v>
+        <v>0.512</v>
       </c>
       <c r="L18" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="M18" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>0.428</v>
+        <v>0.438</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>16.8</v>
       </c>
       <c r="P18" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.782</v>
+        <v>0.761</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>36.6</v>
+        <v>38</v>
       </c>
       <c r="T18" t="n">
-        <v>49.6</v>
+        <v>50.3</v>
       </c>
       <c r="U18" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
         <v>9</v>
       </c>
-      <c r="X18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>124.2</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>12</v>
       </c>
-      <c r="AF18" t="n">
-        <v>23</v>
-      </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
@@ -3756,49 +3756,49 @@
         <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
       </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -3905,16 +3905,16 @@
         <v>-11</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF19" t="n">
         <v>12</v>
       </c>
-      <c r="AF19" t="n">
-        <v>10</v>
-      </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>9</v>
@@ -3923,28 +3923,28 @@
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU19" t="n">
         <v>22</v>
@@ -3968,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
@@ -3980,7 +3980,7 @@
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -4087,16 +4087,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF20" t="n">
         <v>12</v>
       </c>
-      <c r="AF20" t="n">
-        <v>10</v>
-      </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
@@ -4108,19 +4108,19 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4129,7 +4129,7 @@
         <v>29</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>11</v>
@@ -4141,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="AV20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
@@ -4150,13 +4150,13 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB20" t="n">
         <v>30</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -4269,16 +4269,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF21" t="n">
         <v>12</v>
       </c>
-      <c r="AF21" t="n">
-        <v>10</v>
-      </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -4287,10 +4287,10 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>14</v>
@@ -4302,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS21" t="n">
         <v>11</v>
@@ -4320,31 +4320,31 @@
         <v>13</v>
       </c>
       <c r="AU21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV21" t="n">
         <v>28</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX21" t="n">
         <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -4451,67 +4451,67 @@
         <v>-3.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ22" t="n">
         <v>28</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>18</v>
@@ -4523,10 +4523,10 @@
         <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
         <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4648,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>7</v>
@@ -4672,10 +4672,10 @@
         <v>4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS23" t="n">
         <v>16</v>
@@ -4684,7 +4684,7 @@
         <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>4</v>
@@ -4693,7 +4693,7 @@
         <v>3</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
@@ -4702,13 +4702,13 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC23" t="n">
         <v>6</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>5</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -4815,13 +4815,13 @@
         <v>2.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="n">
         <v>3</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>2</v>
       </c>
       <c r="AG24" t="n">
         <v>3</v>
@@ -4833,7 +4833,7 @@
         <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>25</v>
@@ -4848,28 +4848,28 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP24" t="n">
         <v>7</v>
       </c>
-      <c r="AP24" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>26</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>7</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -4997,13 +4997,13 @@
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="n">
         <v>3</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>2</v>
       </c>
       <c r="AG25" t="n">
         <v>3</v>
@@ -5012,31 +5012,31 @@
         <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN25" t="n">
         <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -5045,7 +5045,7 @@
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
@@ -5054,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX25" t="n">
         <v>18</v>
@@ -5063,16 +5063,16 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -5101,160 +5101,160 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="I26" t="n">
-        <v>39.8</v>
+        <v>42.3</v>
       </c>
       <c r="J26" t="n">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.439</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>14.8</v>
+        <v>15.7</v>
       </c>
       <c r="M26" t="n">
-        <v>40.5</v>
+        <v>41.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.364</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>17.8</v>
+        <v>14</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>18.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.798</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>42.8</v>
+        <v>43.3</v>
       </c>
       <c r="U26" t="n">
-        <v>22.8</v>
+        <v>25.7</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>17.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>112</v>
+        <v>114.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-8.300000000000001</v>
+        <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AR26" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BB26" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -5361,28 +5361,28 @@
         <v>-0.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="n">
         <v>3</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>2</v>
       </c>
       <c r="AG27" t="n">
         <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>15</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>17</v>
-      </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>26</v>
@@ -5391,16 +5391,16 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
         <v>5</v>
@@ -5415,10 +5415,10 @@
         <v>14</v>
       </c>
       <c r="AV27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>12</v>
@@ -5430,13 +5430,13 @@
         <v>22</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -5465,115 +5465,115 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>43.3</v>
+        <v>44.3</v>
       </c>
       <c r="J28" t="n">
-        <v>92.8</v>
+        <v>94.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L28" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="M28" t="n">
-        <v>29.8</v>
+        <v>31.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.378</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>17.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.803</v>
+        <v>0.83</v>
       </c>
       <c r="R28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>38.5</v>
+        <v>40.7</v>
       </c>
       <c r="T28" t="n">
-        <v>46.8</v>
+        <v>49.3</v>
       </c>
       <c r="U28" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="V28" t="n">
-        <v>13.3</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="X28" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5582,43 +5582,43 @@
         <v>28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA28" t="n">
         <v>23</v>
       </c>
-      <c r="AS28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ28" t="n">
+      <c r="BB28" t="n">
         <v>10</v>
       </c>
-      <c r="BA28" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>15</v>
-      </c>
       <c r="BC28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -5725,13 +5725,13 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>27</v>
@@ -5743,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>29</v>
@@ -5764,13 +5764,13 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5779,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW29" t="n">
         <v>5</v>
@@ -5788,13 +5788,13 @@
         <v>2</v>
       </c>
       <c r="AY29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB29" t="n">
         <v>29</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -5907,13 +5907,13 @@
         <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
@@ -5922,19 +5922,19 @@
         <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN30" t="n">
         <v>18</v>
@@ -5946,43 +5946,43 @@
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
         <v>15</v>
       </c>
       <c r="AW30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX30" t="n">
         <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ30" t="n">
         <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC30" t="n">
         <v>10</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6113,19 +6113,19 @@
         <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
@@ -6137,13 +6137,13 @@
         <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
         <v>26</v>
@@ -6152,7 +6152,7 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ31" t="n">
         <v>30</v>
@@ -6161,10 +6161,10 @@
         <v>15</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-30-2020-21</t>
+          <t>2020-12-30</t>
         </is>
       </c>
     </row>
